--- a/Data Atlet Pelatih/DaftarPembagianAdministratif_Indonesia.xlsx
+++ b/Data Atlet Pelatih/DaftarPembagianAdministratif_Indonesia.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X.UserZ\Documents\GitHub\MyDocs\Data Atlet Pelatih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z.UserZ\Documents\GitHub\MyDocs\Data Atlet Pelatih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E212A24-56DA-4C8C-A870-FC1E2260659C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{2734B515-BDCC-4FB0-994E-CD0AAE089FE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prov" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Kec" sheetId="3" r:id="rId3"/>
     <sheet name="KelDes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="473">
   <si>
     <t>prov_id</t>
   </si>
@@ -709,12 +708,750 @@
   </si>
   <si>
     <t>Suwakan</t>
+  </si>
+  <si>
+    <t>Cimayang</t>
+  </si>
+  <si>
+    <t>Harjawana</t>
+  </si>
+  <si>
+    <t>Kadurahayu</t>
+  </si>
+  <si>
+    <t>Keboncau</t>
+  </si>
+  <si>
+    <t>Mekarmanik</t>
+  </si>
+  <si>
+    <t>Parakanbeusi</t>
+  </si>
+  <si>
+    <t>Bojongcae</t>
+  </si>
+  <si>
+    <t>Bojongleles</t>
+  </si>
+  <si>
+    <t>Pasar Keong</t>
+  </si>
+  <si>
+    <t>Tambakbaya</t>
+  </si>
+  <si>
+    <t>Kaduagung Barat</t>
+  </si>
+  <si>
+    <t>Kaduagung Timur</t>
+  </si>
+  <si>
+    <t>Malabar</t>
+  </si>
+  <si>
+    <t>Panancangan</t>
+  </si>
+  <si>
+    <t>Mekar Agung</t>
+  </si>
+  <si>
+    <t>Asem Margaluyu</t>
+  </si>
+  <si>
+    <t>Cimenteng Jaya</t>
+  </si>
+  <si>
+    <t>Kaduagung Tengah</t>
+  </si>
+  <si>
+    <t>Cihambali</t>
+  </si>
+  <si>
+    <t>Ciherang</t>
+  </si>
+  <si>
+    <t>Cikadu</t>
+  </si>
+  <si>
+    <t>Cikotok</t>
+  </si>
+  <si>
+    <t>Cisungsang</t>
+  </si>
+  <si>
+    <t>Citorek Barat</t>
+  </si>
+  <si>
+    <t>Citorek Kidul</t>
+  </si>
+  <si>
+    <t>Citorek Tengah</t>
+  </si>
+  <si>
+    <t>Citorek Timur</t>
+  </si>
+  <si>
+    <t>Citorek Sabrang</t>
+  </si>
+  <si>
+    <t>Gunungwangun</t>
+  </si>
+  <si>
+    <t>Hegarmanah</t>
+  </si>
+  <si>
+    <t>Kujangjaya</t>
+  </si>
+  <si>
+    <t>Kujangsari</t>
+  </si>
+  <si>
+    <t>Mekarsari</t>
+  </si>
+  <si>
+    <t>Sinargalih</t>
+  </si>
+  <si>
+    <t>Situmulya</t>
+  </si>
+  <si>
+    <t>Wanasari</t>
+  </si>
+  <si>
+    <t>Warungbanten</t>
+  </si>
+  <si>
+    <t>Cibungur</t>
+  </si>
+  <si>
+    <t>Cikadongdong</t>
+  </si>
+  <si>
+    <t>Cikaret</t>
+  </si>
+  <si>
+    <t>Cikate</t>
+  </si>
+  <si>
+    <t>Mugijaya</t>
+  </si>
+  <si>
+    <t>Peucangpari</t>
+  </si>
+  <si>
+    <t>Ciparahu</t>
+  </si>
+  <si>
+    <t>Citepuseun</t>
+  </si>
+  <si>
+    <t>Karangkamulyan</t>
+  </si>
+  <si>
+    <t>Lebak Peundeuy</t>
+  </si>
+  <si>
+    <t>Panyaungan</t>
+  </si>
+  <si>
+    <t>Pondokpanjang</t>
+  </si>
+  <si>
+    <t>Cihujan</t>
+  </si>
+  <si>
+    <t>Cikaratuan</t>
+  </si>
+  <si>
+    <t>Cimega</t>
+  </si>
+  <si>
+    <t>Cipalabuh</t>
+  </si>
+  <si>
+    <t>Kandangsapi</t>
+  </si>
+  <si>
+    <t>Kapunduhan</t>
+  </si>
+  <si>
+    <t>Sukasenang</t>
+  </si>
+  <si>
+    <t>Cigoong Selatan</t>
+  </si>
+  <si>
+    <t>Cigoong Utara</t>
+  </si>
+  <si>
+    <t>Curugpanjang</t>
+  </si>
+  <si>
+    <t>Muaradua</t>
+  </si>
+  <si>
+    <t>Muncangkopong</t>
+  </si>
+  <si>
+    <t>Parage</t>
+  </si>
+  <si>
+    <t>Pasirgintung</t>
+  </si>
+  <si>
+    <t>Sukadaya</t>
+  </si>
+  <si>
+    <t>Sukaharja</t>
+  </si>
+  <si>
+    <t>Sumurbandung</t>
+  </si>
+  <si>
+    <t>Taman Jaya</t>
+  </si>
+  <si>
+    <t>Cikareo</t>
+  </si>
+  <si>
+    <t>Cipadang</t>
+  </si>
+  <si>
+    <t>Daroyon</t>
+  </si>
+  <si>
+    <t>Gumuruh</t>
+  </si>
+  <si>
+    <t>Margamulya</t>
+  </si>
+  <si>
+    <t>Parungkujang</t>
+  </si>
+  <si>
+    <t>Pasindangan</t>
+  </si>
+  <si>
+    <t>Prabugantungan</t>
+  </si>
+  <si>
+    <t>Cijengkol</t>
+  </si>
+  <si>
+    <t>Cikamunding</t>
+  </si>
+  <si>
+    <t>Cikatomas</t>
+  </si>
+  <si>
+    <t>Cibareno</t>
+  </si>
+  <si>
+    <t>Cireundeu</t>
+  </si>
+  <si>
+    <t>Girimukti</t>
+  </si>
+  <si>
+    <t>Gunungbatu</t>
+  </si>
+  <si>
+    <t>Lebaktipar</t>
+  </si>
+  <si>
+    <t>Pasirbungur</t>
+  </si>
+  <si>
+    <t>Gunung Anten</t>
+  </si>
+  <si>
+    <t>Intenjaya</t>
+  </si>
+  <si>
+    <t>Jayamanik</t>
+  </si>
+  <si>
+    <t>Jayasari</t>
+  </si>
+  <si>
+    <t>Karyajaya</t>
+  </si>
+  <si>
+    <t>Margajaya</t>
+  </si>
+  <si>
+    <t>Margaluyu</t>
+  </si>
+  <si>
+    <t>Margatirta</t>
+  </si>
+  <si>
+    <t>Sangiang Jaya</t>
+  </si>
+  <si>
+    <t>Sangkanmanik</t>
+  </si>
+  <si>
+    <t>Sarageni</t>
+  </si>
+  <si>
+    <t>Sudamanik</t>
+  </si>
+  <si>
+    <t>Tambak</t>
+  </si>
+  <si>
+    <t>Giriharja</t>
+  </si>
+  <si>
+    <t>Girilaya</t>
+  </si>
+  <si>
+    <t>Harumsari</t>
+  </si>
+  <si>
+    <t>Haurgajrug</t>
+  </si>
+  <si>
+    <t>Jayapura</t>
+  </si>
+  <si>
+    <t>Luhurjaya</t>
+  </si>
+  <si>
+    <t>Malangsari</t>
+  </si>
+  <si>
+    <t>Pasirhaur</t>
+  </si>
+  <si>
+    <t>Sipayung</t>
+  </si>
+  <si>
+    <t>Sukasari</t>
+  </si>
+  <si>
+    <t>Talagahiang</t>
+  </si>
+  <si>
+    <t>Bintangresmi</t>
+  </si>
+  <si>
+    <t>Bintangsari</t>
+  </si>
+  <si>
+    <t>Cempaka</t>
+  </si>
+  <si>
+    <t>Datarcae</t>
+  </si>
+  <si>
+    <t>Kadudamas</t>
+  </si>
+  <si>
+    <t>Karangnunggal</t>
+  </si>
+  <si>
+    <t>Nangerang</t>
+  </si>
+  <si>
+    <t>Parakanlima</t>
+  </si>
+  <si>
+    <t>Candi</t>
+  </si>
+  <si>
+    <t>Ciburuy</t>
+  </si>
+  <si>
+    <t>Cidadap</t>
+  </si>
+  <si>
+    <t>Cilayang</t>
+  </si>
+  <si>
+    <t>Cipining</t>
+  </si>
+  <si>
+    <t>Guradog</t>
+  </si>
+  <si>
+    <t>Lebak Asih</t>
+  </si>
+  <si>
+    <t>Mayak</t>
+  </si>
+  <si>
+    <t>Sekarwangi</t>
+  </si>
+  <si>
+    <t>Bojongkoneng</t>
+  </si>
+  <si>
+    <t>Bulakan</t>
+  </si>
+  <si>
+    <t>Ciakar</t>
+  </si>
+  <si>
+    <t>Cicaringin</t>
+  </si>
+  <si>
+    <t>Ciginggang</t>
+  </si>
+  <si>
+    <t>Cimanyangray</t>
+  </si>
+  <si>
+    <t>Cisampang</t>
+  </si>
+  <si>
+    <t>Gunungkendeng</t>
+  </si>
+  <si>
+    <t>Keramatjaya/Kramatjaya</t>
+  </si>
+  <si>
+    <t>Sukanegara</t>
+  </si>
+  <si>
+    <t>Tanjungsari Indah</t>
+  </si>
+  <si>
+    <t>Aweh</t>
+  </si>
+  <si>
+    <t>Cikatapis</t>
+  </si>
+  <si>
+    <t>Cilangkap</t>
+  </si>
+  <si>
+    <t>Kalang anyar</t>
+  </si>
+  <si>
+    <t>Pasirkupa</t>
+  </si>
+  <si>
+    <t>Sangiang Tanjung</t>
+  </si>
+  <si>
+    <t>Sukamekarsari</t>
+  </si>
+  <si>
+    <t>Banjar Irigasi</t>
+  </si>
+  <si>
+    <t>Ciladaeun</t>
+  </si>
+  <si>
+    <t>Lebakgedong</t>
+  </si>
+  <si>
+    <t>Lebaksangka</t>
+  </si>
+  <si>
+    <t>Lebaksitu</t>
+  </si>
+  <si>
+    <t>Bojongmenteng</t>
+  </si>
+  <si>
+    <t>Cisimeut</t>
+  </si>
+  <si>
+    <t>Cisimeut Raya</t>
+  </si>
+  <si>
+    <t>Jalupang Mulya</t>
+  </si>
+  <si>
+    <t>Kanekes</t>
+  </si>
+  <si>
+    <t>Lebak Parahiang</t>
+  </si>
+  <si>
+    <t>Margawangi</t>
+  </si>
+  <si>
+    <t>Nayagati</t>
+  </si>
+  <si>
+    <t>Sangkanwangi</t>
+  </si>
+  <si>
+    <t>Wantisari</t>
+  </si>
+  <si>
+    <t>Binong</t>
+  </si>
+  <si>
+    <t>Curug Badak</t>
+  </si>
+  <si>
+    <t>Gubugcibeureum</t>
+  </si>
+  <si>
+    <t>Padasuka</t>
+  </si>
+  <si>
+    <t>Pasir Kecapi</t>
+  </si>
+  <si>
+    <t>Pasir Kembang</t>
+  </si>
+  <si>
+    <t>Sangiang</t>
+  </si>
+  <si>
+    <t>Sindangmulya</t>
+  </si>
+  <si>
+    <t>Tanjung Sari</t>
+  </si>
+  <si>
+    <t>Bolang</t>
+  </si>
+  <si>
+    <t>Cilangkahan</t>
+  </si>
+  <si>
+    <t>Cipeundeuy</t>
+  </si>
+  <si>
+    <t>Kadujajar</t>
+  </si>
+  <si>
+    <t>Kersaratu</t>
+  </si>
+  <si>
+    <t>Malingping Selatan</t>
+  </si>
+  <si>
+    <t>Malingping Utara</t>
+  </si>
+  <si>
+    <t>Rahong</t>
+  </si>
+  <si>
+    <t>Sanghiang</t>
+  </si>
+  <si>
+    <t>Senanghati</t>
+  </si>
+  <si>
+    <t>Sukamanah</t>
+  </si>
+  <si>
+    <t>Sukaraja</t>
+  </si>
+  <si>
+    <t>Sumberwaras</t>
+  </si>
+  <si>
+    <t>Cikarang</t>
+  </si>
+  <si>
+    <t>Ciminyak</t>
+  </si>
+  <si>
+    <t>Karangcombong</t>
+  </si>
+  <si>
+    <t>Leuwicoo</t>
+  </si>
+  <si>
+    <t>Pasirnangka</t>
+  </si>
+  <si>
+    <t>Sindangwangi</t>
+  </si>
+  <si>
+    <t>Sukanagara</t>
+  </si>
+  <si>
+    <t>Cimandiri</t>
+  </si>
+  <si>
+    <t>Gunung Gede</t>
+  </si>
+  <si>
+    <t>Jatake</t>
+  </si>
+  <si>
+    <t>Sindangratu</t>
+  </si>
+  <si>
+    <t>Situragen</t>
+  </si>
+  <si>
+    <t>Sogong</t>
+  </si>
+  <si>
+    <t>Sukajadi</t>
+  </si>
+  <si>
+    <t>Cimangeunteung</t>
+  </si>
+  <si>
+    <t>Citeras</t>
+  </si>
+  <si>
+    <t>Jatimulya</t>
+  </si>
+  <si>
+    <t>Kolelet Wetan</t>
+  </si>
+  <si>
+    <t>Nameng</t>
+  </si>
+  <si>
+    <t>Narimbang Mulia</t>
+  </si>
+  <si>
+    <t>Pasirtanjung</t>
+  </si>
+  <si>
+    <t>Rangkasbitung Timur</t>
+  </si>
+  <si>
+    <t>Cijoro Lebak</t>
+  </si>
+  <si>
+    <t>Cijoro Pasir</t>
+  </si>
+  <si>
+    <t>Muara Ciujung Barat</t>
+  </si>
+  <si>
+    <t>Muara Ciujung Timur</t>
+  </si>
+  <si>
+    <t>Rangkasbitung Barat</t>
+  </si>
+  <si>
+    <t>Bangunmekar</t>
+  </si>
+  <si>
+    <t>Calungbungur</t>
+  </si>
+  <si>
+    <t>Ciuyah</t>
+  </si>
+  <si>
+    <t>Maraya</t>
+  </si>
+  <si>
+    <t>Paja</t>
+  </si>
+  <si>
+    <t>Pajagan</t>
+  </si>
+  <si>
+    <t>Parungsari</t>
+  </si>
+  <si>
+    <t>Sajira Mekar</t>
+  </si>
+  <si>
+    <t>Sindangsari</t>
+  </si>
+  <si>
+    <t>Sukajaya</t>
+  </si>
+  <si>
+    <t>Sukamarga</t>
+  </si>
+  <si>
+    <t>Sukarame</t>
+  </si>
+  <si>
+    <t>Cilebang</t>
+  </si>
+  <si>
+    <t>Cirompang</t>
+  </si>
+  <si>
+    <t>Citujah</t>
+  </si>
+  <si>
+    <t>Hariang</t>
+  </si>
+  <si>
+    <t>Sindanglaya</t>
+  </si>
+  <si>
+    <t>Sukamaju</t>
+  </si>
+  <si>
+    <t>Bejod</t>
+  </si>
+  <si>
+    <t>Cipedang</t>
+  </si>
+  <si>
+    <t>Cisarap</t>
+  </si>
+  <si>
+    <t>Karangpamindangan</t>
+  </si>
+  <si>
+    <t>Ketapang</t>
+  </si>
+  <si>
+    <t>Muara</t>
+  </si>
+  <si>
+    <t>Parungpanjang</t>
+  </si>
+  <si>
+    <t>Sukatani</t>
+  </si>
+  <si>
+    <t>Cibuah</t>
+  </si>
+  <si>
+    <t>Jagabaya</t>
+  </si>
+  <si>
+    <t>Pasirtangkil</t>
+  </si>
+  <si>
+    <t>Selaraja</t>
+  </si>
+  <si>
+    <t>Sukarendah</t>
+  </si>
+  <si>
+    <t>Cikayas</t>
+  </si>
+  <si>
+    <t>Cipinang</t>
+  </si>
+  <si>
+    <t>Kadubadak</t>
+  </si>
+  <si>
+    <t>Karangsari</t>
+  </si>
+  <si>
+    <t>Kramatmanik</t>
+  </si>
+  <si>
+    <t>Padaherang</t>
+  </si>
+  <si>
+    <t>Padamulya</t>
+  </si>
+  <si>
+    <t>Sumurlaban</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1060,18 +1797,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E833C1A6-BCD0-4314-9054-FEF1580D0D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1087,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1095,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1103,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1111,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1119,7 +1856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1127,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1135,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1143,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1151,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1159,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1167,7 +1904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1175,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1183,7 +1920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1191,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1199,7 +1936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1207,7 +1944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1215,7 +1952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1223,7 +1960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1231,7 +1968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1239,7 +1976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1247,7 +1984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1255,7 +1992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1263,7 +2000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1271,7 +2008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1279,7 +2016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1287,7 +2024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1295,7 +2032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1303,7 +2040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1311,7 +2048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1319,7 +2056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1327,7 +2064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1335,7 +2072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1343,7 +2080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1358,19 +2095,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F68A6-9A96-401A-9C50-97763CC0BB28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1381,7 +2120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1392,7 +2131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1403,7 +2142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1414,7 +2153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1425,7 +2164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1436,7 +2175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1447,7 +2186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1458,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1475,19 +2214,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276513D2-54E0-4AFC-B586-5BB32F137444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1498,7 +2239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1509,7 +2250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1520,7 +2261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1531,7 +2272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1542,7 +2283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1553,7 +2294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1564,7 +2305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1575,7 +2316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1586,7 +2327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1597,7 +2338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1608,7 +2349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1619,7 +2360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1630,7 +2371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1641,7 +2382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1652,7 +2393,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1663,7 +2404,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1674,7 +2415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1685,7 +2426,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1696,7 +2437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1707,7 +2448,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1718,7 +2459,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1729,7 +2470,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1740,7 +2481,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1751,7 +2492,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1762,7 +2503,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1773,7 +2514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1784,7 +2525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1795,7 +2536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1806,7 +2547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1814,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1825,10 +2566,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1836,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1847,10 +2588,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1858,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1869,10 +2610,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1880,10 +2621,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1891,10 +2632,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1902,10 +2643,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1913,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1924,10 +2665,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1935,10 +2676,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1946,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1957,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1968,10 +2709,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1979,10 +2720,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1990,10 +2731,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2001,10 +2742,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2015,7 +2756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2023,10 +2764,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2034,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2045,10 +2786,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2059,7 +2800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2067,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2078,10 +2819,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2089,10 +2830,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2100,10 +2841,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2111,10 +2852,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2122,10 +2863,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2133,10 +2874,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2144,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2155,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2166,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2177,10 +2918,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2188,10 +2929,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2202,7 +2943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2213,7 +2954,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2224,7 +2965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2235,7 +2976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2246,7 +2987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2257,7 +2998,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2268,7 +3009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2279,7 +3020,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2290,7 +3031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2301,7 +3042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2312,7 +3053,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2323,7 +3064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2334,7 +3075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2345,7 +3086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2356,7 +3097,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2367,7 +3108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2378,7 +3119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2389,7 +3130,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2400,7 +3141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2411,7 +3152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2422,7 +3163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2433,7 +3174,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2444,7 +3185,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2455,7 +3196,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2466,7 +3207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2477,7 +3218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2488,7 +3229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2499,7 +3240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2510,7 +3251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2521,7 +3262,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2532,7 +3273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2543,7 +3284,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2554,7 +3295,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2565,7 +3306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2576,7 +3317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2587,7 +3328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2598,7 +3339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2609,7 +3350,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2620,7 +3361,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2631,7 +3372,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2642,7 +3383,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2653,7 +3394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2664,7 +3405,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2675,7 +3416,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2686,7 +3427,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2697,7 +3438,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2708,7 +3449,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2719,7 +3460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2730,7 +3471,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2741,7 +3482,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2752,7 +3493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2763,7 +3504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2774,7 +3515,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2785,7 +3526,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2796,7 +3537,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2807,7 +3548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2818,7 +3559,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2829,7 +3570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2840,7 +3581,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2851,7 +3592,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2862,7 +3603,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2873,7 +3614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2884,7 +3625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2895,7 +3636,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2906,7 +3647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2917,7 +3658,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2928,7 +3669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2939,7 +3680,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2950,7 +3691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2961,7 +3702,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2972,7 +3713,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2983,7 +3724,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2994,7 +3735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3005,7 +3746,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3016,7 +3757,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3027,7 +3768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3038,7 +3779,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3049,7 +3790,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3060,7 +3801,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3071,7 +3812,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3082,7 +3823,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3093,7 +3834,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3104,7 +3845,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3115,7 +3856,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3126,7 +3867,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3134,10 +3875,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3145,10 +3886,10 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3156,10 +3897,10 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3167,10 +3908,10 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3178,10 +3919,10 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3189,10 +3930,10 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3204,27 +3945,30 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="C150:C156">
+    <sortCondition ref="C150"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28FA442-0907-489E-B751-F17C2E11E7F6}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>214</v>
       </c>
@@ -3235,7 +3979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3246,7 +3990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3257,7 +4001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3268,7 +4012,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3279,7 +4023,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3290,7 +4034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3301,7 +4045,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3312,7 +4056,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3323,7 +4067,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3334,7 +4078,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3345,7 +4089,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3356,7 +4100,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3367,7 +4111,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3378,7 +4122,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3389,7 +4133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3400,7 +4144,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3411,7 +4155,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3422,7 +4166,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3433,7 +4177,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3444,7 +4188,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3455,7 +4199,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3466,7 +4210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3477,7 +4221,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3488,7 +4232,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3499,7 +4243,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3510,7 +4254,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3521,7 +4265,3355 @@
         <v>226</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>17</v>
+      </c>
+      <c r="C190" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>17</v>
+      </c>
+      <c r="C191" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>17</v>
+      </c>
+      <c r="C193" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>17</v>
+      </c>
+      <c r="C194" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>19</v>
+      </c>
+      <c r="C202" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>19</v>
+      </c>
+      <c r="C206" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>19</v>
+      </c>
+      <c r="C207" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>19</v>
+      </c>
+      <c r="C209" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>19</v>
+      </c>
+      <c r="C210" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>19</v>
+      </c>
+      <c r="C211" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>19</v>
+      </c>
+      <c r="C212" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>20</v>
+      </c>
+      <c r="C216" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+      <c r="C218" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>20</v>
+      </c>
+      <c r="C224" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>21</v>
+      </c>
+      <c r="C225" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>21</v>
+      </c>
+      <c r="C226" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>21</v>
+      </c>
+      <c r="C227" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>21</v>
+      </c>
+      <c r="C228" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>21</v>
+      </c>
+      <c r="C229" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>21</v>
+      </c>
+      <c r="C230" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>21</v>
+      </c>
+      <c r="C231" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>21</v>
+      </c>
+      <c r="C232" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>21</v>
+      </c>
+      <c r="C233" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>21</v>
+      </c>
+      <c r="C234" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>21</v>
+      </c>
+      <c r="C235" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>21</v>
+      </c>
+      <c r="C236" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>21</v>
+      </c>
+      <c r="C237" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>21</v>
+      </c>
+      <c r="C238" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>22</v>
+      </c>
+      <c r="C240" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>22</v>
+      </c>
+      <c r="C242" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>22</v>
+      </c>
+      <c r="C243" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>22</v>
+      </c>
+      <c r="C244" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>23</v>
+      </c>
+      <c r="C247" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>23</v>
+      </c>
+      <c r="C248" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>23</v>
+      </c>
+      <c r="C252" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>23</v>
+      </c>
+      <c r="C253" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>23</v>
+      </c>
+      <c r="C254" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>23</v>
+      </c>
+      <c r="C255" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>23</v>
+      </c>
+      <c r="C256" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>24</v>
+      </c>
+      <c r="C257" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>24</v>
+      </c>
+      <c r="C258" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>24</v>
+      </c>
+      <c r="C259" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>24</v>
+      </c>
+      <c r="C260" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>24</v>
+      </c>
+      <c r="C261" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>24</v>
+      </c>
+      <c r="C262" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>24</v>
+      </c>
+      <c r="C263" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>24</v>
+      </c>
+      <c r="C264" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>24</v>
+      </c>
+      <c r="C265" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>24</v>
+      </c>
+      <c r="C266" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>24</v>
+      </c>
+      <c r="C267" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>24</v>
+      </c>
+      <c r="C268" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>24</v>
+      </c>
+      <c r="C269" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>24</v>
+      </c>
+      <c r="C270" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>24</v>
+      </c>
+      <c r="C271" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>24</v>
+      </c>
+      <c r="C272" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>25</v>
+      </c>
+      <c r="C273" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>25</v>
+      </c>
+      <c r="C275" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>25</v>
+      </c>
+      <c r="C276" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>25</v>
+      </c>
+      <c r="C277" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>25</v>
+      </c>
+      <c r="C278" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>25</v>
+      </c>
+      <c r="C279" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>25</v>
+      </c>
+      <c r="C280" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>25</v>
+      </c>
+      <c r="C281" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>25</v>
+      </c>
+      <c r="C282" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>25</v>
+      </c>
+      <c r="C283" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>25</v>
+      </c>
+      <c r="C284" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>25</v>
+      </c>
+      <c r="C285" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>25</v>
+      </c>
+      <c r="C286" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>25</v>
+      </c>
+      <c r="C287" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>26</v>
+      </c>
+      <c r="C288" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>26</v>
+      </c>
+      <c r="C289" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>26</v>
+      </c>
+      <c r="C290" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>26</v>
+      </c>
+      <c r="C291" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>26</v>
+      </c>
+      <c r="C292" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>26</v>
+      </c>
+      <c r="C293" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>26</v>
+      </c>
+      <c r="C294" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>26</v>
+      </c>
+      <c r="C295" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>26</v>
+      </c>
+      <c r="C296" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>26</v>
+      </c>
+      <c r="C297" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>27</v>
+      </c>
+      <c r="C298" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>27</v>
+      </c>
+      <c r="C299" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>27</v>
+      </c>
+      <c r="C300" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>27</v>
+      </c>
+      <c r="C301" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>27</v>
+      </c>
+      <c r="C302" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>27</v>
+      </c>
+      <c r="C303" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>27</v>
+      </c>
+      <c r="C304" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>27</v>
+      </c>
+      <c r="C305" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>27</v>
+      </c>
+      <c r="C306" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>27</v>
+      </c>
+      <c r="C307" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>27</v>
+      </c>
+      <c r="C308" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>27</v>
+      </c>
+      <c r="C309" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>27</v>
+      </c>
+      <c r="C310" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>28</v>
+      </c>
+      <c r="C311" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>28</v>
+      </c>
+      <c r="C312" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>28</v>
+      </c>
+      <c r="C313" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>28</v>
+      </c>
+      <c r="C314" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>28</v>
+      </c>
+      <c r="C315" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>28</v>
+      </c>
+      <c r="C316" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>28</v>
+      </c>
+      <c r="C317" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>28</v>
+      </c>
+      <c r="C318" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>28</v>
+      </c>
+      <c r="C319" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>28</v>
+      </c>
+      <c r="C320" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>28</v>
+      </c>
+      <c r="C321" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>28</v>
+      </c>
+      <c r="C322" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>29</v>
+      </c>
+      <c r="C323" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>29</v>
+      </c>
+      <c r="C324" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>29</v>
+      </c>
+      <c r="C325" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>29</v>
+      </c>
+      <c r="C326" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>29</v>
+      </c>
+      <c r="C327" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>29</v>
+      </c>
+      <c r="C328" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>29</v>
+      </c>
+      <c r="C329" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>29</v>
+      </c>
+      <c r="C330" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>29</v>
+      </c>
+      <c r="C331" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="C257:C272">
+    <sortCondition ref="C257"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="122" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Atlet Pelatih/DaftarPembagianAdministratif_Indonesia.xlsx
+++ b/Data Atlet Pelatih/DaftarPembagianAdministratif_Indonesia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z.UserZ\Documents\GitHub\MyDocs\Data Atlet Pelatih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X.UserZ\Documents\GitHub\MyDocs\Data Atlet Pelatih\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815674CF-68E5-4C01-8118-117811688838}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prov" sheetId="1" r:id="rId1"/>
@@ -1451,7 +1452,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1797,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2095,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2214,10 +2215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:C64"/>
     </sheetView>
   </sheetViews>
@@ -3954,7 +3955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
